--- a/企劃資料/美術清單/物件清單.xlsx
+++ b/企劃資料/美術清單/物件清單.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="編號規則" sheetId="2" r:id="rId1"/>
     <sheet name="工作表1" sheetId="1" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -38,7 +38,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0001~0999</t>
+    <t>不規則物件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00002</t>
+  </si>
+  <si>
+    <t>00003</t>
+  </si>
+  <si>
+    <t>!4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物件簡述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grass，草地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dirt，泥地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_cobblestone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_planks</t>
+  </si>
+  <si>
+    <t>00005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00020</t>
+  </si>
+  <si>
+    <t>00045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone，石頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log，樹塊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glass，玻璃塊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stonebrick，石磚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brick，窯磚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,91 +130,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不規則物件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>00003</t>
-  </si>
-  <si>
-    <t>!4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物件簡述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grass，草地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dirt，泥地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_cobblestone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5_planks</t>
-  </si>
-  <si>
-    <t>00005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00020</t>
-  </si>
-  <si>
-    <t>00045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00098</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stone，石頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log，樹塊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glass，玻璃塊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stonebrick，石磚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brick，窯磚</t>
+    <t>2001~2999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
@@ -524,7 +524,7 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -532,10 +532,10 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
@@ -570,10 +570,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -587,15 +587,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -604,12 +604,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -618,12 +618,12 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -632,12 +632,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -646,12 +646,12 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -660,12 +660,12 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
@@ -674,12 +674,12 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
@@ -688,12 +688,12 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
@@ -702,12 +702,12 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
